--- a/experiments/Combined E.xlsx
+++ b/experiments/Combined E.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="0" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
+    <workbookView xWindow="1000" yWindow="20" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -167,7 +167,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -195,11 +195,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="4000"/>
+              <a:t>Distance At a Height of 4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="4000" baseline="0"/>
+              <a:t> Feet</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="4000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -207,9 +232,7 @@
           <c:tx>
             <c:v>E1</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'E1'!$A$2:$A$18</c:f>
@@ -329,7 +352,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -337,9 +359,7 @@
           <c:tx>
             <c:v>E2</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'E2'!$I$2:$I$18</c:f>
@@ -400,7 +420,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -410,22 +429,51 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="471621560"/>
-        <c:axId val="471547848"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="415402872"/>
+        <c:axId val="415405848"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="471621560"/>
+        <c:axId val="415402872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2800"/>
+                  <a:t>Distance (feet)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471547848"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415405848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -433,18 +481,47 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471547848"/>
+        <c:axId val="415405848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2800"/>
+                  <a:t>Times seen per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471621560"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415402872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -453,6 +530,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -882,7 +969,7 @@
         <v>1389825309.3306301</v>
       </c>
       <c r="H2" s="1">
-        <f>G2-F2</f>
+        <f t="shared" ref="H2:H18" si="0">G2-F2</f>
         <v>11.354180097579956</v>
       </c>
       <c r="I2">
@@ -913,11 +1000,11 @@
         <v>1389825344.5253799</v>
       </c>
       <c r="H3" s="1">
-        <f>G3-F3</f>
+        <f t="shared" si="0"/>
         <v>11.536249876022339</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I18" si="0">E3/MAX(H3,10)</f>
+        <f t="shared" ref="I3:I18" si="1">E3/MAX(H3,10)</f>
         <v>56.777549640407223</v>
       </c>
     </row>
@@ -944,11 +1031,11 @@
         <v>1389825383.6675701</v>
       </c>
       <c r="H4" s="1">
-        <f>G4-F4</f>
+        <f t="shared" si="0"/>
         <v>11.962310075759888</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.742707399803066</v>
       </c>
     </row>
@@ -975,11 +1062,11 @@
         <v>1389825417.4855199</v>
       </c>
       <c r="H5" s="1">
-        <f>G5-F5</f>
+        <f t="shared" si="0"/>
         <v>10.830529928207397</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.151698363082282</v>
       </c>
     </row>
@@ -1006,11 +1093,11 @@
         <v>1389825453.4130099</v>
       </c>
       <c r="H6" s="1">
-        <f>G6-F6</f>
+        <f t="shared" si="0"/>
         <v>11.795299768447876</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.098726452670526</v>
       </c>
     </row>
@@ -1037,11 +1124,11 @@
         <v>1389825491.5200801</v>
       </c>
       <c r="H7" s="1">
-        <f>G7-F7</f>
+        <f t="shared" si="0"/>
         <v>10.577160120010376</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.344617602291954</v>
       </c>
     </row>
@@ -1068,11 +1155,11 @@
         <v>1389825529.5811501</v>
       </c>
       <c r="H8" s="1">
-        <f>G8-F8</f>
+        <f t="shared" si="0"/>
         <v>11.588279962539673</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.223222190398644</v>
       </c>
     </row>
@@ -1099,11 +1186,11 @@
         <v>1389825568.9603801</v>
       </c>
       <c r="H9" s="1">
-        <f>G9-F9</f>
+        <f t="shared" si="0"/>
         <v>11.127240180969238</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.622644438001238</v>
       </c>
     </row>
@@ -1130,11 +1217,11 @@
         <v>1389825729.0302801</v>
       </c>
       <c r="H10" s="1">
-        <f>G10-F10</f>
+        <f t="shared" si="0"/>
         <v>11.305240154266357</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.752365903522687</v>
       </c>
     </row>
@@ -1161,11 +1248,11 @@
         <v>1389825766.08198</v>
       </c>
       <c r="H11" s="1">
-        <f>G11-F11</f>
+        <f t="shared" si="0"/>
         <v>11.848170042037964</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9796719485511041</v>
       </c>
     </row>
@@ -1192,11 +1279,11 @@
         <v>1389825804.3248</v>
       </c>
       <c r="H12" s="1">
-        <f>G12-F12</f>
+        <f t="shared" si="0"/>
         <v>12.728310108184814</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.141704473734716</v>
       </c>
     </row>
@@ -1223,11 +1310,11 @@
         <v>1389825903.63661</v>
       </c>
       <c r="H13" s="1">
-        <f>G13-F13</f>
+        <f t="shared" si="0"/>
         <v>12.574249982833862</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.132294197368548</v>
       </c>
     </row>
@@ -1254,11 +1341,11 @@
         <v>1389825957.6939001</v>
       </c>
       <c r="H14" s="1">
-        <f>G14-F14</f>
+        <f t="shared" si="0"/>
         <v>13.206640005111694</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.232749579127475</v>
       </c>
     </row>
@@ -1285,11 +1372,11 @@
         <v>1389826175.78368</v>
       </c>
       <c r="H15" s="1">
-        <f>G15-F15</f>
+        <f t="shared" si="0"/>
         <v>12.021239995956421</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.554032701030639</v>
       </c>
     </row>
@@ -1316,11 +1403,11 @@
         <v>1389826220.63024</v>
       </c>
       <c r="H16" s="1">
-        <f>G16-F16</f>
+        <f t="shared" si="0"/>
         <v>12.01626992225647</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1596710461009154</v>
       </c>
     </row>
@@ -1347,11 +1434,11 @@
         <v>1389826262.2244699</v>
       </c>
       <c r="H17" s="1">
-        <f>G17-F17</f>
+        <f t="shared" si="0"/>
         <v>11.824229955673218</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0445957271600039</v>
       </c>
     </row>
@@ -1378,11 +1465,11 @@
         <v>1389826318.97526</v>
       </c>
       <c r="H18" s="1">
-        <f>G18-F18</f>
+        <f t="shared" si="0"/>
         <v>12.373280048370361</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5463643983931492</v>
       </c>
     </row>
@@ -1462,7 +1549,7 @@
         <v>11.99219012260437</v>
       </c>
       <c r="I2">
-        <f>E2/MAX(H2,10)</f>
+        <f t="shared" ref="I2:I18" si="0">E2/MAX(H2,10)</f>
         <v>37.024096137626572</v>
       </c>
     </row>
@@ -1489,11 +1576,11 @@
         <v>1389831041.37357</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H18" si="0">G3-F3</f>
+        <f t="shared" ref="H3:H18" si="1">G3-F3</f>
         <v>11.352169990539551</v>
       </c>
       <c r="I3">
-        <f>E3/MAX(H3,10)</f>
+        <f t="shared" si="0"/>
         <v>56.817331006980822</v>
       </c>
     </row>
@@ -1520,11 +1607,11 @@
         <v>1389831075.4151399</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.326210021972656</v>
       </c>
       <c r="I4">
-        <f>E4/MAX(H4,10)</f>
+        <f t="shared" si="0"/>
         <v>57.389011747001952</v>
       </c>
     </row>
@@ -1551,11 +1638,11 @@
         <v>1389831119.66078</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.3332200050354</v>
       </c>
       <c r="I5">
-        <f>E5/MAX(H5,10)</f>
+        <f t="shared" si="0"/>
         <v>54.177012334287788</v>
       </c>
     </row>
@@ -1582,11 +1669,11 @@
         <v>1389831162.92331</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.867219924926758</v>
       </c>
       <c r="I6">
-        <f>E6/MAX(H6,10)</f>
+        <f t="shared" si="0"/>
         <v>51.570629336236657</v>
       </c>
     </row>
@@ -1613,11 +1700,11 @@
         <v>1389831202.3634601</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.308320045471191</v>
       </c>
       <c r="I7">
-        <f>E7/MAX(H7,10)</f>
+        <f t="shared" si="0"/>
         <v>35.666930854753709</v>
       </c>
     </row>
@@ -1644,11 +1731,11 @@
         <v>1389831240.7955</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.574350118637085</v>
       </c>
       <c r="I8">
-        <f>E8/MAX(H8,10)</f>
+        <f t="shared" si="0"/>
         <v>35.23044895524319</v>
       </c>
     </row>
@@ -1675,11 +1762,11 @@
         <v>1389831279.6975701</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.494600057601929</v>
       </c>
       <c r="I9">
-        <f>E9/MAX(H9,10)</f>
+        <f t="shared" si="0"/>
         <v>17.312477076433101</v>
       </c>
     </row>
@@ -1706,11 +1793,11 @@
         <v>1389831318.89869</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.513339996337891</v>
       </c>
       <c r="I10">
-        <f>E10/MAX(H10,10)</f>
+        <f t="shared" si="0"/>
         <v>21.896631920829119</v>
       </c>
     </row>
@@ -1737,11 +1824,11 @@
         <v>1389831360.0870099</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.275319814682007</v>
       </c>
       <c r="I11">
-        <f>E11/MAX(H11,10)</f>
+        <f t="shared" si="0"/>
         <v>5.3766419935601277</v>
       </c>
     </row>
@@ -1768,11 +1855,11 @@
         <v>1389831405.0857501</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.806280136108398</v>
       </c>
       <c r="I12">
-        <f>E12/MAX(H12,10)</f>
+        <f t="shared" si="0"/>
         <v>16.770735381285391</v>
       </c>
     </row>
@@ -1799,11 +1886,11 @@
         <v>1389831447.7751999</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.835249900817871</v>
       </c>
       <c r="I13">
-        <f>E13/MAX(H13,10)</f>
+        <f t="shared" si="0"/>
         <v>11.744576681088454</v>
       </c>
     </row>
@@ -1830,11 +1917,11 @@
         <v>1389831507.9535301</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.612349987030029</v>
       </c>
       <c r="I14">
-        <f>E14/MAX(H14,10)</f>
+        <f t="shared" si="0"/>
         <v>24.499795860229192</v>
       </c>
     </row>
@@ -1861,11 +1948,11 @@
         <v>1389831558.76987</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.933279991149902</v>
       </c>
       <c r="I15">
-        <f>E15/MAX(H15,10)</f>
+        <f t="shared" si="0"/>
         <v>15.251464822326884</v>
       </c>
     </row>
@@ -1892,11 +1979,11 @@
         <v>1389831604.9075301</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.991219997406006</v>
       </c>
       <c r="I16">
-        <f>E16/MAX(H16,10)</f>
+        <f t="shared" si="0"/>
         <v>11.091448578941188</v>
       </c>
     </row>
@@ -1923,11 +2010,11 @@
         <v>1389831655.3325701</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.498280048370361</v>
       </c>
       <c r="I17">
-        <f>E17/MAX(H17,10)</f>
+        <f t="shared" si="0"/>
         <v>1.2001651380788059</v>
       </c>
     </row>
@@ -1954,11 +2041,11 @@
         <v>1389831711.6131599</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1509099006652832</v>
       </c>
       <c r="I18">
-        <f>E18/MAX(H18,10)</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
     </row>

--- a/experiments/Combined E.xlsx
+++ b/experiments/Combined E.xlsx
@@ -202,22 +202,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="4000"/>
+              <a:rPr lang="en-US" sz="1800"/>
               <a:t>Distance At a Height of 4</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="4000" baseline="0"/>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
               <a:t> Feet</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="4000"/>
+            <a:endParaRPr lang="en-US" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
+      <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -430,11 +430,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="415402872"/>
-        <c:axId val="415405848"/>
+        <c:axId val="387557976"/>
+        <c:axId val="387563608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="415402872"/>
+        <c:axId val="387557976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -447,13 +447,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2800"/>
+                  <a:rPr lang="en-US" sz="1000"/>
                   <a:t>Distance (feet)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -468,12 +468,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600"/>
+              <a:defRPr sz="1000"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415405848"/>
+        <c:crossAx val="387563608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -481,7 +481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415405848"/>
+        <c:axId val="387563608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,10 +495,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2800"/>
+                  <a:rPr lang="en-US" sz="1000"/>
                   <a:t>Times seen per second</a:t>
                 </a:r>
               </a:p>
@@ -516,12 +516,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600"/>
+              <a:defRPr sz="1000"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415402872"/>
+        <c:crossAx val="387557976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -558,15 +558,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>88899</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>110065</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
